--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usr\DSPT\Desktop\Ciberseguridad\Ciberseguridad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSPT\OneDrive\Escritorio\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E8A8D5-F174-42FD-8C41-ECFE790C8277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089898B6-F609-44AB-A1B5-9E5E5FB09E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="171">
   <si>
     <t>cal</t>
   </si>
@@ -384,9 +386,6 @@
     <t>SNORT</t>
   </si>
   <si>
-    <t>SURICATA</t>
-  </si>
-  <si>
     <t>netstat</t>
   </si>
   <si>
@@ -450,14 +449,126 @@
     <t>wazuh</t>
   </si>
   <si>
-    <t>Prueba git</t>
+    <t>Administración de eventos e información de seguridad  Ingestión de registros en tiempo real, Alerta contra actividades anormales.Monitoreo y visibilidad 24 horas al día, 7 días a la semana, Protección contra las últimas amenazas mediante la detección temprana, Información y visualización de datos,Capacidad para investigar incidentes pasados.</t>
+  </si>
+  <si>
+    <t>/var/log/</t>
+  </si>
+  <si>
+    <t>sistema operativo Linux almacena todos los registros relacionados, como eventos, errores, advertencias, etc.</t>
+  </si>
+  <si>
+    <t>Ruta</t>
+  </si>
+  <si>
+    <t>Logs Linux</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>ELK</t>
+  </si>
+  <si>
+    <t>Qradar SIEM</t>
+  </si>
+  <si>
+    <t>whoami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderbird </t>
+  </si>
+  <si>
+    <t>whois</t>
+  </si>
+  <si>
+    <t>https://www.whois.com/whois/</t>
+  </si>
+  <si>
+    <t>Búsqueda de dominio Whois //WHOIS es un protocolo TCP basado en petición/respuesta para efectuar consultas en una base de datos que permite determinar el propietario de un nombre de dominio o una dirección IP en Internet</t>
+  </si>
+  <si>
+    <t>sistema de prevención de intrusiones ( IPS ) de código abierto más importante del mundo. Snort IPS utiliza una serie de reglas que ayudan a definir la actividad maliciosa de la red y utiliza esas reglas para encontrar paquetes que coincidan con ellos y generar alertas para los usuarios</t>
+  </si>
+  <si>
+    <t>suricata</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>hide.me</t>
+  </si>
+  <si>
+    <t>VPNBOOK</t>
+  </si>
+  <si>
+    <t>Hidemy name</t>
+  </si>
+  <si>
+    <t>Lista de proxy gratuitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La detección y respuesta de endpoints ( EDR ) son una serie de herramientas y aplicaciones que monitorean los dispositivos en busca de una actividad que pueda indicar una amenaza o una violación de seguridad. Estas herramientas y aplicaciones tienen características que incluyen:Auditoría de un dispositivo para detectar vulnerabilidades comunes,Monitoreo proactivo de un dispositivo para detectar actividades sospechosas, como inicios de sesión no autorizados, ataques de fuerza bruta o escaladas de privilegios.Visualización de datos y eventos complejos en gráficos claros y modernosRegistrar el comportamiento operativo normal de un dispositivo para ayudar a detectar anomalías</t>
+  </si>
+  <si>
+    <t>Herramientas de Eric Zimmerman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> análisis forenses en la plataforma Windows  realizar análisis del registro, del sistema de archivos, de la línea de tiempo y de muchos otros tipos</t>
+  </si>
+  <si>
+    <t>automatiza la recopilación y el análisis de artefactos forenses y puede ayudar a crear una cronología de eventos KAPE (Comandos) GKAPE (version grafica)</t>
+  </si>
+  <si>
+    <t>Autopsy</t>
+  </si>
+  <si>
+    <t>KAPE</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Redline</t>
+  </si>
+  <si>
+    <t>Velociraptor</t>
+  </si>
+  <si>
+    <t>Autopsy es una plataforma forense de código abierto que ayuda a analizar datos de medios digitales como dispositivos móviles, discos duros y unidades extraíbles. Varios complementos para autopsias aceleran el proceso forense y extraen y presentan información valiosa de las fuentes de datos sin procesar</t>
+  </si>
+  <si>
+    <t>es una herramienta que ayuda a realizar análisis de memoria para capturas de memoria de sistemas operativos Windows y Linux. Es una herramienta poderosa que puede ayudar a extraer información valiosa de la memoria de una máquina bajo investigación.</t>
+  </si>
+  <si>
+    <t>herramienta de respuesta a incidentes desarrollada y distribuida gratuitamente por FireEye. Esta herramienta puede recopilar datos forenses de un sistema y ayudar con la información forense recopilada</t>
+  </si>
+  <si>
+    <t>regedit.exe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">registro de Windows consta de claves y valores regedit.exe Ruta si se esta trabajando con una imagen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Windows\System32\Config</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,8 +592,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,12 +611,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -535,9 +648,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -548,7 +658,7 @@
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -629,8 +739,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G94" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B1:G94" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="B1:G86" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:G86" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cal" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{A319250A-DB6A-4E22-9E08-441923ED5FB6}" name="TIPO2" dataDxfId="4"/>
@@ -960,24 +1070,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G94"/>
+  <dimension ref="B1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="6" customWidth="1"/>
     <col min="7" max="7" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -997,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="45">
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>5</v>
       </c>
@@ -1017,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>5</v>
       </c>
@@ -1033,11 +1143,11 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>5</v>
       </c>
@@ -1057,7 +1167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1073,11 +1183,11 @@
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -1093,11 +1203,11 @@
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30">
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1115,7 +1225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1127,9 +1237,11 @@
         <v>32</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" ht="30">
+      <c r="G8" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1147,7 +1259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1163,11 +1275,11 @@
       <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1183,11 +1295,11 @@
       <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30">
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1197,7 +1309,7 @@
       <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1207,7 +1319,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1223,11 +1335,11 @@
       <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>5</v>
       </c>
@@ -1243,11 +1355,11 @@
       <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -1263,11 +1375,11 @@
       <c r="F15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -1283,11 +1395,11 @@
       <c r="F16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30">
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -1307,7 +1419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30">
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>3</v>
       </c>
@@ -1327,7 +1439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30">
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -1347,7 +1459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>5</v>
       </c>
@@ -1363,11 +1475,11 @@
       <c r="F20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30">
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>5</v>
       </c>
@@ -1387,7 +1499,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30">
+    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>3</v>
       </c>
@@ -1407,7 +1519,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
@@ -1417,11 +1529,11 @@
         <v>83</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>5</v>
       </c>
@@ -1433,11 +1545,11 @@
         <v>86</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>4</v>
       </c>
@@ -1451,11 +1563,11 @@
         <v>90</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>5</v>
       </c>
@@ -1471,11 +1583,11 @@
       <c r="F26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>96</v>
@@ -1487,11 +1599,11 @@
       <c r="F27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="45">
+    <row r="28" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>5</v>
       </c>
@@ -1511,7 +1623,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="45">
+    <row r="29" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -1531,7 +1643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30">
+    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -1551,7 +1663,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="45">
+    <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>5</v>
       </c>
@@ -1571,7 +1683,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -1579,7 +1691,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1587,15 +1699,17 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1603,570 +1717,625 @@
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+    <row r="35" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="G35" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="G37" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="G38" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="G39" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="G40" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="G41" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7">
+      <c r="G42" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>5</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="7" t="s">
-        <v>115</v>
+      <c r="C43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:7">
+      <c r="G43" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:7" ht="30">
-      <c r="B45" s="3">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>120</v>
-      </c>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="60">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>5</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="3">
-        <v>5</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="3">
-        <v>5</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>128</v>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="60">
-      <c r="B50" s="3">
-        <v>5</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="7" t="s">
-        <v>133</v>
+      <c r="E50" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="30">
-      <c r="B51" s="3">
-        <v>5</v>
-      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="2:7">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="E53" s="3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:7">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="E54" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="2:7">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="E55" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="2:7">
+      <c r="G55" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="G56" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="G57" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="G58" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="2:7">
+      <c r="G59" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="2:7">
+      <c r="G60" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="2:7">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="2:7">
+      <c r="G62" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="2:7">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="2:7">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="2:7">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="2:7">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="2:7">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="2:7">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="2:7">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="2:7">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="2:7">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="2:7">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="2:7">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="2:7">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="2:7">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="2:7">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="2:7">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="2:7">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="2:7">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="2:7">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="2:7">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="2:7">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="2:7">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="2:7">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="G86" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B35 B37:B1048576">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
